--- a/data/ISBSG2016R1_1_Formatted4CSVAgileOnly.xlsx
+++ b/data/ISBSG2016R1_1_Formatted4CSVAgileOnly.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7e8a9698d8ff09e/ddata/UK/UKStudy/BSCHonsComputingTopup/2025-6CC552-ResearchProject/dataset/ISBSG/Ready4MLTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="14_{4E877F5E-4D60-471C-AC4D-4991292E8094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6210F464-18C3-43BE-B7FC-A7EA911B4B57}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{4E877F5E-4D60-471C-AC4D-4991292E8094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B63643-DEBA-4C0B-A57B-D45C3EFD702B}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="350" windowWidth="20340" windowHeight="12970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -278,9 +278,6 @@
     <t>Client server</t>
   </si>
   <si>
-    <t>HTML/web server;Security/authentication;</t>
-  </si>
-  <si>
     <t>Real-Time Application</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>M2</t>
   </si>
   <si>
-    <t>Financial transaction process/accounting;Management or performance reporting;Data Warehouse system;</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -350,24 +344,12 @@
     <t>Agile Development;Unified Process;</t>
   </si>
   <si>
-    <t>Database server;File &amp;/or print server;HTML/web server;Multi-user legacy application;</t>
-  </si>
-  <si>
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>Aerospace / Automotive;</t>
-  </si>
-  <si>
     <t>Mathematically-Intensive Application</t>
   </si>
   <si>
-    <t>Mathematical modelling (finance or eng.);Software development tool;</t>
-  </si>
-  <si>
-    <t>Database server;HTML/web server;Mail server;Security/authentication;</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -380,24 +362,12 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>Agile Development;Personal Software Process (PSP);Unified Process;</t>
-  </si>
-  <si>
-    <t>Web/HTML browser;</t>
-  </si>
-  <si>
-    <t>Security/authentication;</t>
-  </si>
-  <si>
     <t>Canada, dollar</t>
   </si>
   <si>
     <t>Community Services;Government;Public administration;</t>
   </si>
   <si>
-    <t>Catalogue/register of things or events;</t>
-  </si>
-  <si>
     <t>Agile Development;Scrum;</t>
   </si>
   <si>
@@ -410,15 +380,9 @@
     <t>Food Processing;</t>
   </si>
   <si>
-    <t>Financial transaction process/accounting;Customer billing;</t>
-  </si>
-  <si>
     <t>All industry organization types;</t>
   </si>
   <si>
-    <t>Security/Authentication;</t>
-  </si>
-  <si>
     <t>Security Controls;</t>
   </si>
   <si>
@@ -431,18 +395,9 @@
     <t>Financial</t>
   </si>
   <si>
-    <t>Customer billing/relationship management;</t>
-  </si>
-  <si>
     <t>Run a computer-human interface;Business logic or rule processing;Database server;</t>
   </si>
   <si>
-    <t>Database server;File &amp;/or print server;HTML/web server;Mail server;Security/authentication;</t>
-  </si>
-  <si>
-    <t>HTML/web server;Multi-user legacy application;</t>
-  </si>
-  <si>
     <t>Information Technology;</t>
   </si>
   <si>
@@ -512,24 +467,15 @@
     <t>61-70</t>
   </si>
   <si>
-    <t>Database server;FTP server;HTML/web server;Messaging server;Object/component server;Security/authentication;Business logic + Integration to 30 other systems;</t>
-  </si>
-  <si>
     <t>Government;Community Services;</t>
   </si>
   <si>
-    <t>PL/I</t>
-  </si>
-  <si>
     <t>Infrastructure Software</t>
   </si>
   <si>
     <t>Data or database management;</t>
   </si>
   <si>
-    <t>Database server;HTML/web server;</t>
-  </si>
-  <si>
     <t>Yes 10,000</t>
   </si>
   <si>
@@ -545,9 +491,6 @@
     <t>Project_PRF_Normalised Work Effort Level 1</t>
   </si>
   <si>
-    <t>Tech_TF_Client/Server_Description</t>
-  </si>
-  <si>
     <t>Tech_TF_Upper_CASE_Used</t>
   </si>
   <si>
@@ -662,9 +605,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>Data entry_validation;Data retrieval_presentation;Web/HTML browser;</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -749,9 +689,6 @@
     <t>345</t>
   </si>
   <si>
-    <t>C/S;</t>
-  </si>
-  <si>
     <t>-2</t>
   </si>
   <si>
@@ -884,9 +821,6 @@
     <t>22</t>
   </si>
   <si>
-    <t>Run a computer-human interface;Data entry_validation;Data retrieval_presentation;Web/HTML browser;Security;</t>
-  </si>
-  <si>
     <t>-108</t>
   </si>
   <si>
@@ -983,9 +917,6 @@
     <t>14535</t>
   </si>
   <si>
-    <t>Catalogue/register of things or events;Logistic or supply planning_control;</t>
-  </si>
-  <si>
     <t>483</t>
   </si>
   <si>
@@ -1214,9 +1145,6 @@
     <t>Proprietary Midrange;</t>
   </si>
   <si>
-    <t>Client: presentation;Server: processing;</t>
-  </si>
-  <si>
     <t>-13</t>
   </si>
   <si>
@@ -1514,9 +1442,6 @@
     <t>14.1</t>
   </si>
   <si>
-    <t>Data entry_validation;Data retrieval_presentation;Device/equipment interface;</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -1721,12 +1646,6 @@
     <t>68</t>
   </si>
   <si>
-    <t>Agile Development;Joint Application Development (JAD);Multifunctional Teams;</t>
-  </si>
-  <si>
-    <t>Run a computer-human interface;Data entry_validation;Data retrieval_presentation;Web/HTML browser;</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -1872,6 +1791,87 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>Tech_TF_Client_Server_Description</t>
+  </si>
+  <si>
+    <t>Data entry_validation;Data retrieval_presentation;Web_HTML browser;</t>
+  </si>
+  <si>
+    <t>HTML_web server;Security_authentication;</t>
+  </si>
+  <si>
+    <t>C_S;</t>
+  </si>
+  <si>
+    <t>Financial transaction process_accounting;Management or performance reporting;Data Warehouse system;</t>
+  </si>
+  <si>
+    <t>Run a computer-human interface;Data entry_validation;Data retrieval_presentation;Web_HTML browser;Security;</t>
+  </si>
+  <si>
+    <t>Database server;File_ print server;HTML_web server;Multi-user legacy application;</t>
+  </si>
+  <si>
+    <t>Aerospace _ Automotive;</t>
+  </si>
+  <si>
+    <t>Mathematical modelling_finance or eng.;Software development tool;</t>
+  </si>
+  <si>
+    <t>Database server;HTML_web server;Mail server;Security_authentication;</t>
+  </si>
+  <si>
+    <t>Agile Development;Personal Software Process_PSP;Unified Process;</t>
+  </si>
+  <si>
+    <t>Web_HTML browser;</t>
+  </si>
+  <si>
+    <t>Security_authentication;</t>
+  </si>
+  <si>
+    <t>Catalogue_register of things or events;</t>
+  </si>
+  <si>
+    <t>Catalogue_register of things or events;Logistic or supply planning_control;</t>
+  </si>
+  <si>
+    <t>Financial transaction process_accounting;Customer billing;</t>
+  </si>
+  <si>
+    <t>Security_Authentication;</t>
+  </si>
+  <si>
+    <t>Client_presentation;Server_processing;</t>
+  </si>
+  <si>
+    <t>Customer billing_relationship management;</t>
+  </si>
+  <si>
+    <t>Database server;File_ print server;HTML_web server;Mail server;Security_authentication;</t>
+  </si>
+  <si>
+    <t>HTML_web server;Multi-user legacy application;</t>
+  </si>
+  <si>
+    <t>Data entry_validation;Data retrieval_presentation;Device_equipment interface;</t>
+  </si>
+  <si>
+    <t>Agile Development;Joint Application Development_JAD;Multifunctional Teams;</t>
+  </si>
+  <si>
+    <t>Run a computer-human interface;Data entry_validation;Data retrieval_presentation;Web_HTML browser;</t>
+  </si>
+  <si>
+    <t>Database server;FTP server;HTML_web server;Messaging server;Object_component server;Security_authentication;Business logic_Integration to 30 other systems;</t>
+  </si>
+  <si>
+    <t>PL_I</t>
+  </si>
+  <si>
+    <t>Database server;HTML_web server;</t>
   </si>
 </sst>
 </file>
@@ -2198,11 +2198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C48031-729B-4B70-9ECD-A2A6060B8AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CC6C11-416A-4B02-8864-595DB251B3DC}">
   <dimension ref="A1:BA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2248,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -2305,7 +2305,7 @@
         <v>30</v>
       </c>
       <c r="AG1" t="s">
-        <v>169</v>
+        <v>585</v>
       </c>
       <c r="AH1" t="s">
         <v>31</v>
@@ -2317,7 +2317,7 @@
         <v>33</v>
       </c>
       <c r="AK1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -2370,19 +2370,19 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2403,31 +2403,31 @@
         <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
         <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V2" t="s">
         <v>59</v>
@@ -2439,7 +2439,7 @@
         <v>60</v>
       </c>
       <c r="AA2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB2" t="s">
         <v>61</v>
@@ -2448,18 +2448,18 @@
         <v>62</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -2483,43 +2483,43 @@
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
         <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="Q3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="R3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="U3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Y3" t="s">
         <v>60</v>
       </c>
       <c r="AA3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AZ3" t="s">
         <v>69</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -2560,43 +2560,43 @@
         <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M4" t="s">
         <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="R4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="U4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y4" t="s">
         <v>60</v>
       </c>
       <c r="AA4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="AZ4" t="s">
         <v>69</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
@@ -2625,7 +2625,7 @@
         <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
         <v>54</v>
@@ -2640,40 +2640,40 @@
         <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M5" t="s">
         <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="O5" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Q5" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="R5" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="S5" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U5" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="V5" t="s">
         <v>78</v>
       </c>
       <c r="W5" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="X5" t="s">
         <v>70</v>
@@ -2682,7 +2682,7 @@
         <v>60</v>
       </c>
       <c r="AA5" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AB5" t="s">
         <v>79</v>
@@ -2691,63 +2691,63 @@
         <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>208</v>
+        <v>586</v>
       </c>
       <c r="AE5" t="s">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AI5" t="s">
         <v>62</v>
       </c>
       <c r="AJ5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK5" t="s">
         <v>70</v>
       </c>
       <c r="AM5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AN5" t="s">
         <v>59</v>
       </c>
       <c r="AO5" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AS5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT5" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AU5" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AV5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AW5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -2768,31 +2768,31 @@
         <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="M6" t="s">
         <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="O6" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="Q6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="T6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="U6" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V6" t="s">
         <v>59</v>
@@ -2804,7 +2804,7 @@
         <v>60</v>
       </c>
       <c r="AA6" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB6" t="s">
         <v>61</v>
@@ -2813,24 +2813,24 @@
         <v>62</v>
       </c>
       <c r="AJ6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -2851,31 +2851,31 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="M7" t="s">
         <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="Q7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="S7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="T7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="U7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V7" t="s">
         <v>59</v>
@@ -2887,7 +2887,7 @@
         <v>60</v>
       </c>
       <c r="AA7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB7" t="s">
         <v>61</v>
@@ -2896,18 +2896,18 @@
         <v>59</v>
       </c>
       <c r="AY7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2916,7 +2916,7 @@
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
         <v>54</v>
@@ -2931,58 +2931,58 @@
         <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="M8" t="s">
         <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="O8" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="Q8" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="R8" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="S8" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="T8" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="U8" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="Y8" t="s">
         <v>60</v>
       </c>
       <c r="AA8" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC8" t="s">
         <v>62</v>
       </c>
       <c r="AD8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" t="s">
         <v>87</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>88</v>
       </c>
       <c r="AI8" t="s">
         <v>62</v>
@@ -2994,7 +2994,7 @@
         <v>70</v>
       </c>
       <c r="AR8" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AW8" t="s">
         <v>59</v>
@@ -3003,18 +3003,18 @@
         <v>59</v>
       </c>
       <c r="AY8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3038,40 +3038,40 @@
         <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="O9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Q9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="R9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="U9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y9" t="s">
         <v>60</v>
       </c>
       <c r="AA9" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AG9" t="s">
-        <v>237</v>
+        <v>588</v>
       </c>
       <c r="AI9" t="s">
         <v>62</v>
@@ -3083,34 +3083,34 @@
         <v>70</v>
       </c>
       <c r="AM9" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AN9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AO9" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AP9" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AQ9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AR9" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AS9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT9" t="s">
         <v>59</v>
       </c>
       <c r="AU9" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AV9" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AW9" t="s">
         <v>59</v>
@@ -3119,7 +3119,7 @@
         <v>59</v>
       </c>
       <c r="AY9" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AZ9" t="s">
         <v>69</v>
@@ -3130,19 +3130,19 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -3163,31 +3163,31 @@
         <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M10" t="s">
         <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="O10" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="Q10" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="S10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="T10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V10" t="s">
         <v>59</v>
@@ -3199,13 +3199,13 @@
         <v>60</v>
       </c>
       <c r="AA10" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB10" t="s">
         <v>61</v>
       </c>
       <c r="AG10" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="AI10" t="s">
         <v>62</v>
@@ -3217,22 +3217,22 @@
         <v>70</v>
       </c>
       <c r="AM10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AN10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AO10" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AP10" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AQ10" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AR10" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="AS10" t="s">
         <v>59</v>
@@ -3241,10 +3241,10 @@
         <v>59</v>
       </c>
       <c r="AU10" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AV10" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AW10" t="s">
         <v>59</v>
@@ -3253,24 +3253,24 @@
         <v>59</v>
       </c>
       <c r="AY10" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>52</v>
@@ -3291,31 +3291,31 @@
         <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M11" t="s">
         <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O11" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="Q11" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="S11" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="T11" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="U11" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V11" t="s">
         <v>59</v>
@@ -3327,7 +3327,7 @@
         <v>60</v>
       </c>
       <c r="AA11" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB11" t="s">
         <v>61</v>
@@ -3336,7 +3336,7 @@
         <v>30</v>
       </c>
       <c r="AG11" t="s">
-        <v>169</v>
+        <v>585</v>
       </c>
       <c r="AH11" t="s">
         <v>31</v>
@@ -3345,7 +3345,7 @@
         <v>32</v>
       </c>
       <c r="AK11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s">
         <v>34</v>
@@ -3353,19 +3353,19 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
@@ -3386,31 +3386,31 @@
         <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" t="s">
         <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S12" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="T12" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="U12" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V12" t="s">
         <v>59</v>
@@ -3422,7 +3422,7 @@
         <v>60</v>
       </c>
       <c r="AA12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB12" t="s">
         <v>61</v>
@@ -3431,28 +3431,28 @@
         <v>59</v>
       </c>
       <c r="AM12" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AN12" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AO12" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AR12" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="AS12" t="s">
         <v>59</v>
       </c>
       <c r="AT12" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AV12" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AW12" t="s">
         <v>59</v>
@@ -3461,24 +3461,24 @@
         <v>59</v>
       </c>
       <c r="AY12" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -3499,31 +3499,31 @@
         <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="M13" t="s">
         <v>58</v>
       </c>
       <c r="N13" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="O13" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="Q13" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="S13" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="T13" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="U13" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V13" t="s">
         <v>59</v>
@@ -3535,7 +3535,7 @@
         <v>60</v>
       </c>
       <c r="AA13" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB13" t="s">
         <v>61</v>
@@ -3544,28 +3544,28 @@
         <v>59</v>
       </c>
       <c r="AM13" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AN13" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AO13" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AR13" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="AS13" t="s">
         <v>59</v>
       </c>
       <c r="AT13" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU13" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV13" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AW13" t="s">
         <v>59</v>
@@ -3574,128 +3574,128 @@
         <v>59</v>
       </c>
       <c r="AY13" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>52</v>
       </c>
       <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
         <v>94</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>95</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>96</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>97</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>248</v>
+      </c>
+      <c r="M14" t="s">
         <v>98</v>
       </c>
-      <c r="L14" t="s">
-        <v>269</v>
-      </c>
-      <c r="M14" t="s">
-        <v>99</v>
-      </c>
       <c r="N14" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="O14" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="U14" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
         <v>60</v>
       </c>
       <c r="AA14" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="s">
         <v>59</v>
       </c>
       <c r="AM14" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN14" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AO14" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AP14" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AQ14" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AR14" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="AS14" t="s">
         <v>59</v>
       </c>
       <c r="AT14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU14" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV14" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AW14" t="s">
         <v>59</v>
       </c>
       <c r="AX14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY14" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -3707,13 +3707,13 @@
         <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
         <v>66</v>
@@ -3722,43 +3722,43 @@
         <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="O15" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="Q15" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="S15" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="T15" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="U15" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="V15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W15" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="Y15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA15" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB15" t="s">
         <v>79</v>
@@ -3767,13 +3767,13 @@
         <v>62</v>
       </c>
       <c r="AD15" t="s">
-        <v>282</v>
+        <v>590</v>
       </c>
       <c r="AE15" t="s">
-        <v>104</v>
+        <v>591</v>
       </c>
       <c r="AH15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s">
         <v>62</v>
@@ -3782,69 +3782,69 @@
         <v>59</v>
       </c>
       <c r="AM15" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN15" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AO15" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AP15" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AQ15" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AR15" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="AS15" t="s">
         <v>59</v>
       </c>
       <c r="AT15" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU15" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV15" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AW15" t="s">
         <v>59</v>
       </c>
       <c r="AX15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY15" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>592</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>593</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
@@ -3856,40 +3856,40 @@
         <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="O16" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="P16" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="Q16" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="R16" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S16" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="T16" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="U16" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W16" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
         <v>62</v>
@@ -3898,90 +3898,90 @@
         <v>60</v>
       </c>
       <c r="AA16" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AB16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC16" t="s">
         <v>62</v>
       </c>
       <c r="AD16" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="AE16" t="s">
-        <v>109</v>
+        <v>594</v>
       </c>
       <c r="AH16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ16" t="s">
         <v>59</v>
       </c>
       <c r="AM16" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN16" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AO16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY16" t="s">
         <v>272</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>283</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
@@ -3990,61 +3990,61 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="O17" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="P17" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="Q17" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="S17" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="T17" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="U17" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="V17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA17" t="s">
         <v>209</v>
       </c>
-      <c r="Y17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>229</v>
-      </c>
       <c r="AB17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" t="s">
         <v>62</v>
       </c>
       <c r="AD17" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE17" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="AF17" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="AI17" t="s">
         <v>62</v>
@@ -4053,69 +4053,69 @@
         <v>59</v>
       </c>
       <c r="AM17" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN17" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AO17" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AP17" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AQ17" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AR17" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="AS17" t="s">
         <v>59</v>
       </c>
       <c r="AT17" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV17" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AW17" t="s">
         <v>59</v>
       </c>
       <c r="AX17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY17" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="AZ17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
         <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>598</v>
       </c>
       <c r="H18" t="s">
         <v>54</v>
@@ -4130,46 +4130,46 @@
         <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="O18" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="Q18" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="R18" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="S18" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="T18" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="U18" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="V18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AB18" t="s">
         <v>79</v>
@@ -4178,81 +4178,81 @@
         <v>62</v>
       </c>
       <c r="AD18" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ18" t="s">
         <v>59</v>
       </c>
       <c r="AM18" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AP18" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AQ18" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AR18" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="AS18" t="s">
         <v>59</v>
       </c>
       <c r="AT18" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU18" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV18" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AW18" t="s">
         <v>59</v>
       </c>
       <c r="AX18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY18" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
         <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
         <v>55</v>
@@ -4264,37 +4264,37 @@
         <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="O19" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="P19" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Q19" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="S19" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="T19" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="U19" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="X19" t="s">
         <v>70</v>
@@ -4303,7 +4303,7 @@
         <v>60</v>
       </c>
       <c r="AA19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AB19" t="s">
         <v>61</v>
@@ -4318,69 +4318,69 @@
         <v>59</v>
       </c>
       <c r="AM19" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AP19" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AQ19" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AR19" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="AS19" t="s">
         <v>59</v>
       </c>
       <c r="AT19" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU19" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AW19" t="s">
         <v>59</v>
       </c>
       <c r="AX19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY19" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>600</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>55</v>
@@ -4389,43 +4389,43 @@
         <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="M20" t="s">
         <v>58</v>
       </c>
       <c r="N20" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="O20" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="P20" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="Q20" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="R20" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="S20" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="T20" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="U20" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="V20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="X20" t="s">
         <v>70</v>
@@ -4434,7 +4434,7 @@
         <v>60</v>
       </c>
       <c r="AA20" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AB20" t="s">
         <v>61</v>
@@ -4449,60 +4449,60 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="AM20" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="AP20" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AR20" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="AS20" t="s">
         <v>59</v>
       </c>
       <c r="AT20" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU20" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AV20" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AW20" t="s">
         <v>59</v>
       </c>
       <c r="AX20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY20" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="AZ20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -4526,73 +4526,73 @@
         <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s">
         <v>72</v>
       </c>
       <c r="N21" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="O21" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="Q21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="R21" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S21" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="U21" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s">
         <v>60</v>
       </c>
       <c r="AA21" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ21" t="s">
         <v>59</v>
       </c>
       <c r="AM21" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AN21" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="AR21" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AS21" t="s">
         <v>59</v>
       </c>
       <c r="AT21" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU21" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AV21" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AW21" t="s">
         <v>59</v>
       </c>
       <c r="AX21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY21" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="AZ21" t="s">
         <v>69</v>
@@ -4603,114 +4603,114 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
         <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
         <v>94</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>95</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>96</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>97</v>
       </c>
-      <c r="K22" t="s">
-        <v>98</v>
-      </c>
       <c r="L22" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="O22" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="P22" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="Q22" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="S22" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="U22" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s">
         <v>60</v>
       </c>
       <c r="AA22" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ22" t="s">
         <v>59</v>
       </c>
       <c r="AM22" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AN22" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AO22" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="AS22" t="s">
         <v>59</v>
       </c>
       <c r="AT22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU22" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AV22" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AW22" t="s">
         <v>59</v>
       </c>
       <c r="AX22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
         <v>63</v>
@@ -4734,40 +4734,40 @@
         <v>71</v>
       </c>
       <c r="L23" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="M23" t="s">
         <v>72</v>
       </c>
       <c r="N23" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="O23" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="P23" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="Q23" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="R23" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S23" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="U23" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y23" t="s">
         <v>60</v>
       </c>
       <c r="AA23" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AG23" t="s">
-        <v>237</v>
+        <v>588</v>
       </c>
       <c r="AI23" t="s">
         <v>62</v>
@@ -4779,7 +4779,7 @@
         <v>70</v>
       </c>
       <c r="AY23" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="AZ23" t="s">
         <v>69</v>
@@ -4790,13 +4790,13 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
@@ -4820,73 +4820,73 @@
         <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="M24" t="s">
         <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="O24" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="P24" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="Q24" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="R24" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S24" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="U24" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="Y24" t="s">
         <v>60</v>
       </c>
       <c r="AA24" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ24" t="s">
         <v>59</v>
       </c>
       <c r="AM24" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="AN24" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AO24" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="AR24" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="AS24" t="s">
         <v>59</v>
       </c>
       <c r="AT24" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU24" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AV24" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AW24" t="s">
         <v>59</v>
       </c>
       <c r="AX24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY24" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="AZ24" t="s">
         <v>69</v>
@@ -4897,19 +4897,19 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -4930,22 +4930,22 @@
         <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s">
         <v>58</v>
       </c>
       <c r="N25" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="O25" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="Q25" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="S25" t="s">
         <v>59</v>
@@ -4954,7 +4954,7 @@
         <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V25" t="s">
         <v>59</v>
@@ -4966,7 +4966,7 @@
         <v>60</v>
       </c>
       <c r="AA25" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB25" t="s">
         <v>61</v>
@@ -4978,63 +4978,63 @@
         <v>59</v>
       </c>
       <c r="AM25" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="AN25" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AO25" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="AP25" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AQ25" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AR25" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="AS25" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT25" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AU25" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AV25" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AW25" t="s">
         <v>59</v>
       </c>
       <c r="AX25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY25" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>601</v>
       </c>
       <c r="H26" t="s">
         <v>54</v>
@@ -5049,40 +5049,40 @@
         <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="M26" t="s">
         <v>72</v>
       </c>
       <c r="N26" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="O26" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="P26" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="Q26" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="R26" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="S26" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="T26" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="U26" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="V26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W26" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="X26" t="s">
         <v>70</v>
@@ -5094,75 +5094,75 @@
         <v>62</v>
       </c>
       <c r="AA26" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AB26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC26" t="s">
         <v>62</v>
       </c>
       <c r="AE26" t="s">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AJ26" t="s">
         <v>59</v>
       </c>
       <c r="AM26" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AN26" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AO26" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AP26" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AQ26" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AR26" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="AS26" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT26" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AU26" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AV26" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AW26" t="s">
         <v>59</v>
       </c>
       <c r="AX26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY26" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -5183,31 +5183,31 @@
         <v>57</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s">
         <v>68</v>
       </c>
       <c r="N27" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q27" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="S27" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="T27" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="U27" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V27" t="s">
         <v>59</v>
@@ -5219,7 +5219,7 @@
         <v>60</v>
       </c>
       <c r="AA27" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB27" t="s">
         <v>61</v>
@@ -5234,54 +5234,54 @@
         <v>70</v>
       </c>
       <c r="AM27" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AO27" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="AP27" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AQ27" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="AR27" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="AS27" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT27" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AU27" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AV27" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AW27" t="s">
         <v>59</v>
       </c>
       <c r="AX27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY27" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
         <v>63</v>
@@ -5305,73 +5305,73 @@
         <v>67</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s">
         <v>72</v>
       </c>
       <c r="N28" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="O28" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="P28" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="Q28" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="R28" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="U28" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Y28" t="s">
         <v>60</v>
       </c>
       <c r="AA28" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM28" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AN28" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AO28" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="AR28" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="AS28" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT28" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AU28" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AV28" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AW28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY28" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AZ28" t="s">
         <v>69</v>
@@ -5382,135 +5382,135 @@
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
         <v>95</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>96</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>97</v>
       </c>
-      <c r="K29" t="s">
-        <v>98</v>
-      </c>
       <c r="L29" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="O29" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="P29" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="Q29" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="S29" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="U29" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Y29" t="s">
         <v>60</v>
       </c>
       <c r="AA29" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF29" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="AG29" t="s">
-        <v>392</v>
+        <v>602</v>
       </c>
       <c r="AI29" t="s">
         <v>62</v>
       </c>
       <c r="AJ29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL29" t="s">
         <v>62</v>
       </c>
       <c r="AM29" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AN29" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AO29" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="AR29" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="AS29" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT29" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AU29" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AV29" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AW29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY29" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -5531,31 +5531,31 @@
         <v>57</v>
       </c>
       <c r="L30" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s">
         <v>72</v>
       </c>
       <c r="N30" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="O30" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="P30" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="Q30" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="S30" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="T30" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="U30" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V30" t="s">
         <v>59</v>
@@ -5567,99 +5567,99 @@
         <v>60</v>
       </c>
       <c r="AA30" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB30" t="s">
         <v>61</v>
       </c>
       <c r="AH30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s">
         <v>62</v>
       </c>
       <c r="AJ30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM30" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AN30" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AO30" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="AR30" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AS30" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT30" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AU30" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AV30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AW30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY30" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
         <v>95</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>96</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>97</v>
       </c>
-      <c r="K31" t="s">
-        <v>98</v>
-      </c>
       <c r="L31" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="M31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="O31" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="P31" t="s">
         <v>59</v>
@@ -5668,87 +5668,87 @@
         <v>59</v>
       </c>
       <c r="S31" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="U31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y31" t="s">
         <v>60</v>
       </c>
       <c r="AA31" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM31" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AO31" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="AP31" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AQ31" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="AR31" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AS31" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT31" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AU31" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AV31" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AW31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY31" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>603</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
         <v>55</v>
@@ -5760,40 +5760,40 @@
         <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="O32" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="P32" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="Q32" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="R32" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="S32" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="T32" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="U32" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="V32" t="s">
         <v>78</v>
       </c>
       <c r="W32" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="X32" t="s">
         <v>62</v>
@@ -5805,7 +5805,7 @@
         <v>62</v>
       </c>
       <c r="AA32" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AB32" t="s">
         <v>79</v>
@@ -5814,55 +5814,55 @@
         <v>62</v>
       </c>
       <c r="AD32" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="AE32" t="s">
-        <v>133</v>
+        <v>604</v>
       </c>
       <c r="AJ32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM32" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AN32" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AO32" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AP32" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AQ32" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AR32" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AS32" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT32" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AU32" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AV32" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="AW32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY32" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="AZ32" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="BA32" t="s">
         <v>70</v>
@@ -5870,13 +5870,13 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -5885,7 +5885,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
         <v>54</v>
@@ -5900,40 +5900,40 @@
         <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>398</v>
+      </c>
+      <c r="O33" t="s">
+        <v>398</v>
+      </c>
+      <c r="P33" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>399</v>
+      </c>
+      <c r="R33" t="s">
+        <v>400</v>
+      </c>
+      <c r="S33" t="s">
+        <v>401</v>
+      </c>
+      <c r="T33" t="s">
+        <v>402</v>
+      </c>
+      <c r="U33" t="s">
+        <v>187</v>
+      </c>
+      <c r="V33" t="s">
         <v>83</v>
       </c>
-      <c r="N33" t="s">
-        <v>422</v>
-      </c>
-      <c r="O33" t="s">
-        <v>422</v>
-      </c>
-      <c r="P33" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>423</v>
-      </c>
-      <c r="R33" t="s">
-        <v>424</v>
-      </c>
-      <c r="S33" t="s">
-        <v>425</v>
-      </c>
-      <c r="T33" t="s">
-        <v>426</v>
-      </c>
-      <c r="U33" t="s">
-        <v>206</v>
-      </c>
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
       <c r="W33" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="X33" t="s">
         <v>70</v>
@@ -5942,81 +5942,81 @@
         <v>60</v>
       </c>
       <c r="AA33" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC33" t="s">
         <v>62</v>
       </c>
       <c r="AD33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE33" t="s">
-        <v>134</v>
+        <v>605</v>
       </c>
       <c r="AI33" t="s">
         <v>62</v>
       </c>
       <c r="AJ33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM33" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AN33" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AP33" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AQ33" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AR33" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AS33" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT33" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AU33" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AV33" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="AW33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY33" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -6037,31 +6037,31 @@
         <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s">
         <v>58</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="P34" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="Q34" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="S34" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="T34" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="U34" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V34" t="s">
         <v>59</v>
@@ -6073,7 +6073,7 @@
         <v>60</v>
       </c>
       <c r="AA34" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB34" t="s">
         <v>61</v>
@@ -6082,60 +6082,60 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK34" t="s">
         <v>70</v>
       </c>
       <c r="AM34" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AO34" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="AP34" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AQ34" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AR34" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="AS34" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AT34" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AU34" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AV34" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="AW34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY34" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
         <v>63</v>
@@ -6159,79 +6159,79 @@
         <v>71</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s">
         <v>72</v>
       </c>
       <c r="N35" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="O35" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="P35" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="Q35" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="R35" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S35" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="U35" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y35" t="s">
         <v>60</v>
       </c>
       <c r="AA35" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AH35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s">
         <v>62</v>
       </c>
       <c r="AJ35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK35" t="s">
         <v>70</v>
       </c>
       <c r="AM35" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AO35" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="AS35" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AT35" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AU35" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AV35" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="AW35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY35" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="AZ35" t="s">
         <v>69</v>
@@ -6242,78 +6242,78 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="D36" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
         <v>56</v>
       </c>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N36" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="O36" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="U36" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="V36" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="W36" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="Y36" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AA36" t="s">
         <v>59</v>
       </c>
       <c r="AH36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s">
         <v>62</v>
       </c>
       <c r="AJ36" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F37" t="s">
         <v>52</v>
@@ -6334,31 +6334,31 @@
         <v>57</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s">
         <v>58</v>
       </c>
       <c r="N37" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="O37" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="Q37" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="S37" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="T37" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="U37" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V37" t="s">
         <v>59</v>
@@ -6370,7 +6370,7 @@
         <v>60</v>
       </c>
       <c r="AA37" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB37" t="s">
         <v>61</v>
@@ -6379,30 +6379,30 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s">
         <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="F38" t="s">
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H38" t="s">
         <v>54</v>
@@ -6417,34 +6417,34 @@
         <v>57</v>
       </c>
       <c r="L38" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s">
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="O38" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="P38" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="Q38" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="V38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y38" t="s">
         <v>60</v>
       </c>
       <c r="AA38" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AB38" t="s">
         <v>79</v>
@@ -6453,42 +6453,42 @@
         <v>62</v>
       </c>
       <c r="AD38" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="AE38" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AI38" t="s">
         <v>62</v>
       </c>
       <c r="AJ38" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AN38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AV38" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AW38" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX38" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
         <v>63</v>
@@ -6512,43 +6512,43 @@
         <v>71</v>
       </c>
       <c r="L39" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="M39" t="s">
         <v>72</v>
       </c>
       <c r="N39" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="O39" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="P39" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="Q39" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="R39" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S39" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="U39" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y39" t="s">
         <v>60</v>
       </c>
       <c r="AA39" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ39" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY39" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="AZ39" t="s">
         <v>69</v>
@@ -6559,28 +6559,28 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
         <v>55</v>
@@ -6589,93 +6589,93 @@
         <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L40" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N40" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="O40" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="P40" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="Q40" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="S40" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="T40" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="U40" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="V40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W40" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA40" t="s">
         <v>209</v>
       </c>
-      <c r="Y40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>229</v>
-      </c>
       <c r="AB40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC40" t="s">
         <v>62</v>
       </c>
       <c r="AD40" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE40" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="AH40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s">
         <v>62</v>
       </c>
       <c r="AJ40" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AT40" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AW40" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX40" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY40" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="AZ40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
         <v>63</v>
@@ -6699,43 +6699,43 @@
         <v>67</v>
       </c>
       <c r="L41" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s">
         <v>72</v>
       </c>
       <c r="N41" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="O41" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="P41" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="Q41" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="R41" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S41" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="U41" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Y41" t="s">
         <v>60</v>
       </c>
       <c r="AA41" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AJ41" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY41" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="AZ41" t="s">
         <v>69</v>
@@ -6746,19 +6746,19 @@
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>52</v>
@@ -6779,43 +6779,43 @@
         <v>57</v>
       </c>
       <c r="L42" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="M42" t="s">
         <v>72</v>
       </c>
       <c r="N42" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="O42" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="P42" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="Q42" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="S42" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="T42" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="U42" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" t="s">
         <v>60</v>
       </c>
       <c r="AA42" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB42" t="s">
         <v>61</v>
@@ -6824,18 +6824,18 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
         <v>74</v>
@@ -6847,10 +6847,10 @@
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
         <v>76</v>
@@ -6862,40 +6862,40 @@
         <v>77</v>
       </c>
       <c r="L43" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="M43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N43" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="O43" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="P43" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="Q43" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="R43" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="S43" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="T43" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="U43" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="V43" t="s">
         <v>78</v>
       </c>
       <c r="W43" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="X43" t="s">
         <v>70</v>
@@ -6904,7 +6904,7 @@
         <v>60</v>
       </c>
       <c r="AA43" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AB43" t="s">
         <v>79</v>
@@ -6913,72 +6913,72 @@
         <v>62</v>
       </c>
       <c r="AD43" t="s">
-        <v>208</v>
+        <v>586</v>
       </c>
       <c r="AE43" t="s">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AI43" t="s">
         <v>62</v>
       </c>
       <c r="AJ43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK43" t="s">
         <v>70</v>
       </c>
       <c r="AM43" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AN43" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AO43" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AS43" t="s">
         <v>59</v>
       </c>
       <c r="AT43" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AU43" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AV43" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AW43" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX43" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s">
         <v>55</v>
@@ -6987,108 +6987,108 @@
         <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="M44" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" t="s">
+        <v>458</v>
+      </c>
+      <c r="O44" t="s">
+        <v>458</v>
+      </c>
+      <c r="P44" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>459</v>
+      </c>
+      <c r="S44" t="s">
+        <v>460</v>
+      </c>
+      <c r="T44" t="s">
+        <v>461</v>
+      </c>
+      <c r="U44" t="s">
+        <v>168</v>
+      </c>
+      <c r="V44" t="s">
         <v>83</v>
       </c>
-      <c r="N44" t="s">
-        <v>482</v>
-      </c>
-      <c r="O44" t="s">
-        <v>482</v>
-      </c>
-      <c r="P44" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>483</v>
-      </c>
-      <c r="S44" t="s">
-        <v>484</v>
-      </c>
-      <c r="T44" t="s">
-        <v>485</v>
-      </c>
-      <c r="U44" t="s">
-        <v>187</v>
-      </c>
-      <c r="V44" t="s">
-        <v>84</v>
-      </c>
       <c r="W44" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Y44" t="s">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="AA44" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC44" t="s">
         <v>62</v>
       </c>
       <c r="AD44" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE44" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="AH44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s">
         <v>62</v>
       </c>
       <c r="AJ44" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AS44" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AW44" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX44" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY44" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="AZ44" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>592</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
         <v>55</v>
@@ -7100,40 +7100,40 @@
         <v>57</v>
       </c>
       <c r="L45" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="O45" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="P45" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="Q45" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="R45" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S45" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="T45" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="U45" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="V45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W45" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="X45" t="s">
         <v>62</v>
@@ -7142,7 +7142,7 @@
         <v>60</v>
       </c>
       <c r="AA45" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AB45" t="s">
         <v>79</v>
@@ -7151,128 +7151,128 @@
         <v>62</v>
       </c>
       <c r="AD45" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="AE45" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="AJ45" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AK45" t="s">
         <v>62</v>
       </c>
       <c r="AM45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN45" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AO45" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AS45" t="s">
         <v>59</v>
       </c>
       <c r="AT45" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AU45" t="s">
         <v>59</v>
       </c>
       <c r="AV45" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AW45" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX45" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
         <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" t="s">
         <v>95</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>96</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>97</v>
       </c>
-      <c r="K46" t="s">
-        <v>98</v>
-      </c>
       <c r="L46" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="M46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N46" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q46" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="S46" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="U46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y46" t="s">
         <v>60</v>
       </c>
       <c r="AA46" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ46" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -7296,40 +7296,40 @@
         <v>71</v>
       </c>
       <c r="L47" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="M47" t="s">
         <v>72</v>
       </c>
       <c r="N47" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="O47" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="P47" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="Q47" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="R47" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S47" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="U47" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Y47" t="s">
         <v>60</v>
       </c>
       <c r="AA47" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AY47" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="AZ47" t="s">
         <v>69</v>
@@ -7340,28 +7340,28 @@
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s">
         <v>55</v>
@@ -7370,96 +7370,96 @@
         <v>56</v>
       </c>
       <c r="K48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="M48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N48" t="s">
+        <v>481</v>
+      </c>
+      <c r="O48" t="s">
+        <v>481</v>
+      </c>
+      <c r="P48" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>482</v>
+      </c>
+      <c r="S48" t="s">
+        <v>332</v>
+      </c>
+      <c r="T48" t="s">
+        <v>187</v>
+      </c>
+      <c r="U48" t="s">
+        <v>168</v>
+      </c>
+      <c r="V48" t="s">
         <v>83</v>
       </c>
-      <c r="N48" t="s">
-        <v>506</v>
-      </c>
-      <c r="O48" t="s">
-        <v>506</v>
-      </c>
-      <c r="P48" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>507</v>
-      </c>
-      <c r="S48" t="s">
-        <v>355</v>
-      </c>
-      <c r="T48" t="s">
-        <v>206</v>
-      </c>
-      <c r="U48" t="s">
-        <v>187</v>
-      </c>
-      <c r="V48" t="s">
-        <v>84</v>
-      </c>
       <c r="W48" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Y48" t="s">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="AA48" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC48" t="s">
         <v>62</v>
       </c>
       <c r="AD48" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE48" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="AH48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s">
         <v>62</v>
       </c>
       <c r="AT48" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AW48" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX48" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY48" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="AZ48" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -7480,31 +7480,31 @@
         <v>57</v>
       </c>
       <c r="L49" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s">
         <v>58</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="O49" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="P49" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q49" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="S49" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="T49" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="U49" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V49" t="s">
         <v>59</v>
@@ -7516,7 +7516,7 @@
         <v>60</v>
       </c>
       <c r="AA49" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB49" t="s">
         <v>61</v>
@@ -7527,96 +7527,96 @@
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
         <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F50" t="s">
         <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" t="s">
         <v>95</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>96</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>97</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
+        <v>487</v>
+      </c>
+      <c r="M50" t="s">
         <v>98</v>
       </c>
-      <c r="L50" t="s">
-        <v>512</v>
-      </c>
-      <c r="M50" t="s">
-        <v>99</v>
-      </c>
       <c r="N50" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="O50" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="P50" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="Q50" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="S50" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="U50" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="Y50" t="s">
         <v>60</v>
       </c>
       <c r="AA50" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D51" t="s">
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="F51" t="s">
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H51" t="s">
         <v>54</v>
@@ -7631,34 +7631,34 @@
         <v>57</v>
       </c>
       <c r="L51" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
       </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="O51" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="Q51" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="V51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y51" t="s">
         <v>60</v>
       </c>
       <c r="AA51" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AB51" t="s">
         <v>79</v>
@@ -7667,10 +7667,10 @@
         <v>62</v>
       </c>
       <c r="AD51" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="AE51" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AI51" t="s">
         <v>62</v>
@@ -7682,110 +7682,110 @@
         <v>59</v>
       </c>
       <c r="AT51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AV51" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AW51" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX51" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H52" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" t="s">
         <v>95</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>96</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>97</v>
       </c>
-      <c r="K52" t="s">
-        <v>98</v>
-      </c>
       <c r="L52" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="M52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N52" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="O52" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="P52" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Q52" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="S52" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="U52" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Y52" t="s">
         <v>60</v>
       </c>
       <c r="AA52" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
         <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F53" t="s">
         <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H53" t="s">
         <v>54</v>
@@ -7797,31 +7797,31 @@
         <v>66</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="M53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N53" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="P53" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="Q53" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="S53" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="U53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="X53" t="s">
         <v>70</v>
@@ -7830,7 +7830,7 @@
         <v>60</v>
       </c>
       <c r="AA53" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AB53" t="s">
         <v>61</v>
@@ -7845,98 +7845,98 @@
         <v>70</v>
       </c>
       <c r="AN53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AS53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AV53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="AW53" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX53" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" t="s">
         <v>95</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>96</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>97</v>
       </c>
-      <c r="K54" t="s">
-        <v>98</v>
-      </c>
       <c r="L54" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N54" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="O54" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="Q54" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="S54" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="U54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y54" t="s">
         <v>60</v>
       </c>
       <c r="AA54" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
         <v>63</v>
@@ -7960,40 +7960,40 @@
         <v>67</v>
       </c>
       <c r="L55" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s">
         <v>58</v>
       </c>
       <c r="N55" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="O55" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="P55" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="Q55" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="R55" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S55" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="U55" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Y55" t="s">
         <v>60</v>
       </c>
       <c r="AA55" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AY55" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="AZ55" t="s">
         <v>69</v>
@@ -8004,58 +8004,58 @@
     </row>
     <row r="56" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F56" t="s">
         <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" t="s">
         <v>95</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>96</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>97</v>
       </c>
-      <c r="K56" t="s">
-        <v>98</v>
-      </c>
       <c r="L56" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="M56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N56" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="O56" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="P56" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="Q56" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="S56" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="U56" t="s">
         <v>59</v>
@@ -8064,30 +8064,30 @@
         <v>60</v>
       </c>
       <c r="AA56" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
         <v>52</v>
@@ -8108,31 +8108,31 @@
         <v>57</v>
       </c>
       <c r="L57" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="M57" t="s">
         <v>58</v>
       </c>
       <c r="N57" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="O57" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="P57" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="Q57" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="S57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V57" t="s">
         <v>59</v>
@@ -8144,7 +8144,7 @@
         <v>60</v>
       </c>
       <c r="AA57" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB57" t="s">
         <v>61</v>
@@ -8155,87 +8155,87 @@
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" t="s">
         <v>95</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>96</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>97</v>
       </c>
-      <c r="K58" t="s">
-        <v>98</v>
-      </c>
       <c r="L58" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="M58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="O58" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="Q58" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="S58" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="U58" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Y58" t="s">
         <v>60</v>
       </c>
       <c r="AA58" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
         <v>52</v>
@@ -8256,31 +8256,31 @@
         <v>57</v>
       </c>
       <c r="L59" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M59" t="s">
         <v>58</v>
       </c>
       <c r="N59" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="O59" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q59" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="S59" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="T59" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="U59" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V59" t="s">
         <v>59</v>
@@ -8292,7 +8292,7 @@
         <v>60</v>
       </c>
       <c r="AA59" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB59" t="s">
         <v>61</v>
@@ -8303,13 +8303,13 @@
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>63</v>
@@ -8333,40 +8333,40 @@
         <v>67</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="M60" t="s">
         <v>58</v>
       </c>
       <c r="N60" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="O60" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="P60" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="Q60" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="R60" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S60" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="U60" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="Y60" t="s">
         <v>60</v>
       </c>
       <c r="AA60" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AY60" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="AZ60" t="s">
         <v>69</v>
@@ -8377,19 +8377,19 @@
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
         <v>52</v>
@@ -8410,31 +8410,31 @@
         <v>57</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s">
         <v>68</v>
       </c>
       <c r="N61" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="O61" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="Q61" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="S61" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="T61" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="U61" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V61" t="s">
         <v>59</v>
@@ -8446,7 +8446,7 @@
         <v>60</v>
       </c>
       <c r="AA61" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB61" t="s">
         <v>61</v>
@@ -8457,19 +8457,19 @@
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
         <v>52</v>
@@ -8490,31 +8490,31 @@
         <v>57</v>
       </c>
       <c r="L62" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M62" t="s">
         <v>58</v>
       </c>
       <c r="N62" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="O62" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="P62" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="Q62" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="S62" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="T62" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="U62" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V62" t="s">
         <v>59</v>
@@ -8526,7 +8526,7 @@
         <v>60</v>
       </c>
       <c r="AA62" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB62" t="s">
         <v>61</v>
@@ -8537,19 +8537,19 @@
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
         <v>52</v>
@@ -8570,31 +8570,31 @@
         <v>57</v>
       </c>
       <c r="L63" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s">
         <v>58</v>
       </c>
       <c r="N63" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="O63" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="Q63" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="S63" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="T63" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="U63" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V63" t="s">
         <v>59</v>
@@ -8606,7 +8606,7 @@
         <v>60</v>
       </c>
       <c r="AA63" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB63" t="s">
         <v>61</v>
@@ -8617,25 +8617,25 @@
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D64" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
         <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H64" t="s">
         <v>54</v>
@@ -8647,55 +8647,55 @@
         <v>56</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="M64" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N64" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="O64" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="P64" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="Q64" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="R64" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="S64" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="T64" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="U64" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="V64" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="W64" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="X64" t="s">
         <v>62</v>
       </c>
       <c r="Y64" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="Z64" t="s">
         <v>62</v>
       </c>
       <c r="AA64" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AB64" t="s">
         <v>79</v>
@@ -8704,13 +8704,13 @@
         <v>62</v>
       </c>
       <c r="AD64" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="AE64" t="s">
-        <v>158</v>
+        <v>609</v>
       </c>
       <c r="AH64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s">
         <v>62</v>
@@ -8719,57 +8719,57 @@
         <v>62</v>
       </c>
       <c r="AM64" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AN64" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="AO64" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AS64" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AT64" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="AU64" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AV64" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AW64" t="s">
         <v>59</v>
       </c>
       <c r="AX64" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F65" t="s">
         <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s">
         <v>55</v>
@@ -8778,96 +8778,96 @@
         <v>56</v>
       </c>
       <c r="K65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L65" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="M65" t="s">
+        <v>82</v>
+      </c>
+      <c r="N65" t="s">
+        <v>539</v>
+      </c>
+      <c r="O65" t="s">
+        <v>539</v>
+      </c>
+      <c r="P65" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>540</v>
+      </c>
+      <c r="S65" t="s">
+        <v>541</v>
+      </c>
+      <c r="T65" t="s">
+        <v>278</v>
+      </c>
+      <c r="U65" t="s">
+        <v>168</v>
+      </c>
+      <c r="V65" t="s">
         <v>83</v>
       </c>
-      <c r="N65" t="s">
-        <v>566</v>
-      </c>
-      <c r="O65" t="s">
-        <v>566</v>
-      </c>
-      <c r="P65" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>567</v>
-      </c>
-      <c r="S65" t="s">
-        <v>568</v>
-      </c>
-      <c r="T65" t="s">
-        <v>300</v>
-      </c>
-      <c r="U65" t="s">
-        <v>187</v>
-      </c>
-      <c r="V65" t="s">
-        <v>84</v>
-      </c>
       <c r="W65" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Y65" t="s">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="AA65" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC65" t="s">
         <v>62</v>
       </c>
       <c r="AD65" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE65" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="AH65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s">
         <v>62</v>
       </c>
       <c r="AS65" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AW65" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX65" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY65" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="AZ65" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F66" t="s">
         <v>52</v>
@@ -8888,43 +8888,43 @@
         <v>57</v>
       </c>
       <c r="L66" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s">
         <v>72</v>
       </c>
       <c r="N66" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="O66" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="P66" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="Q66" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="S66" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="T66" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="U66" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" t="s">
         <v>60</v>
       </c>
       <c r="AA66" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB66" t="s">
         <v>61</v>
@@ -8935,25 +8935,25 @@
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
         <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F67" t="s">
         <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>598</v>
       </c>
       <c r="H67" t="s">
         <v>54</v>
@@ -8965,43 +8965,43 @@
         <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="L67" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="M67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N67" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="O67" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="P67" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="Q67" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="R67" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S67" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="T67" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="U67" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="V67" t="s">
         <v>78</v>
       </c>
       <c r="W67" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="X67" t="s">
         <v>70</v>
@@ -9013,7 +9013,7 @@
         <v>62</v>
       </c>
       <c r="AA67" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AB67" t="s">
         <v>79</v>
@@ -9028,42 +9028,42 @@
         <v>70</v>
       </c>
       <c r="AM67" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AN67" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AO67" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AS67" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AT67" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AU67" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="AV67" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="AW67" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX67" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
         <v>63</v>
@@ -9087,40 +9087,40 @@
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M68" t="s">
         <v>68</v>
       </c>
       <c r="N68" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="O68" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="P68" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="Q68" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="R68" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S68" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="U68" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Y68" t="s">
         <v>60</v>
       </c>
       <c r="AA68" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AY68" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="AZ68" t="s">
         <v>69</v>
@@ -9131,19 +9131,19 @@
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F69" t="s">
         <v>52</v>
@@ -9164,31 +9164,31 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="M69" t="s">
         <v>58</v>
       </c>
       <c r="N69" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="O69" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="P69" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q69" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="S69" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="T69" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="U69" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V69" t="s">
         <v>59</v>
@@ -9200,7 +9200,7 @@
         <v>60</v>
       </c>
       <c r="AA69" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB69" t="s">
         <v>61</v>
@@ -9211,28 +9211,28 @@
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
         <v>52</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
         <v>55</v>
@@ -9241,96 +9241,96 @@
         <v>56</v>
       </c>
       <c r="K70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L70" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="M70" t="s">
+        <v>82</v>
+      </c>
+      <c r="N70" t="s">
+        <v>556</v>
+      </c>
+      <c r="O70" t="s">
+        <v>556</v>
+      </c>
+      <c r="P70" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>215</v>
+      </c>
+      <c r="S70" t="s">
+        <v>557</v>
+      </c>
+      <c r="T70" t="s">
+        <v>558</v>
+      </c>
+      <c r="U70" t="s">
+        <v>168</v>
+      </c>
+      <c r="V70" t="s">
         <v>83</v>
       </c>
-      <c r="N70" t="s">
-        <v>583</v>
-      </c>
-      <c r="O70" t="s">
-        <v>583</v>
-      </c>
-      <c r="P70" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>235</v>
-      </c>
-      <c r="S70" t="s">
-        <v>584</v>
-      </c>
-      <c r="T70" t="s">
-        <v>585</v>
-      </c>
-      <c r="U70" t="s">
-        <v>187</v>
-      </c>
-      <c r="V70" t="s">
-        <v>84</v>
-      </c>
       <c r="W70" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Y70" t="s">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="AA70" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC70" t="s">
         <v>62</v>
       </c>
       <c r="AD70" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE70" t="s">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="AH70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s">
         <v>62</v>
       </c>
       <c r="AS70" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AW70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AY70" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="AZ70" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
         <v>52</v>
@@ -9351,31 +9351,31 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="M71" t="s">
         <v>58</v>
       </c>
       <c r="N71" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="O71" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="P71" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="Q71" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="S71" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="T71" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="U71" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V71" t="s">
         <v>59</v>
@@ -9387,7 +9387,7 @@
         <v>60</v>
       </c>
       <c r="AA71" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB71" t="s">
         <v>61</v>
@@ -9398,13 +9398,13 @@
     </row>
     <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -9413,13 +9413,13 @@
         <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I72" t="s">
         <v>55</v>
@@ -9431,37 +9431,37 @@
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="M72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N72" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="O72" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="P72" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="Q72" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="S72" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="T72" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="U72" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="V72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X72" t="s">
         <v>62</v>
@@ -9470,22 +9470,22 @@
         <v>60</v>
       </c>
       <c r="AA72" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AB72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC72" t="s">
         <v>62</v>
       </c>
       <c r="AD72" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE72" t="s">
-        <v>163</v>
+        <v>611</v>
       </c>
       <c r="AH72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s">
         <v>62</v>
@@ -9494,39 +9494,39 @@
         <v>62</v>
       </c>
       <c r="AO72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AV72" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="AW72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX72" t="s">
         <v>59</v>
       </c>
       <c r="AY72" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="AZ72" t="s">
         <v>69</v>
       </c>
       <c r="BA72" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -9535,13 +9535,13 @@
         <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s">
         <v>55</v>
@@ -9553,37 +9553,37 @@
         <v>71</v>
       </c>
       <c r="L73" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="M73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N73" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="O73" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="P73" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="Q73" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="S73" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="T73" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="U73" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="V73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X73" t="s">
         <v>62</v>
@@ -9592,22 +9592,22 @@
         <v>60</v>
       </c>
       <c r="AA73" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AB73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC73" t="s">
         <v>62</v>
       </c>
       <c r="AD73" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
       <c r="AE73" t="s">
-        <v>163</v>
+        <v>611</v>
       </c>
       <c r="AH73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s">
         <v>62</v>
@@ -9616,45 +9616,45 @@
         <v>62</v>
       </c>
       <c r="AO73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AV73" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="AW73" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AX73" t="s">
         <v>59</v>
       </c>
       <c r="AY73" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="AZ73" t="s">
         <v>69</v>
       </c>
       <c r="BA73" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="B74" t="s">
         <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
         <v>52</v>
@@ -9675,31 +9675,31 @@
         <v>57</v>
       </c>
       <c r="L74" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="M74" t="s">
         <v>58</v>
       </c>
       <c r="N74" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="O74" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="P74" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="Q74" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="S74" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="T74" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="U74" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V74" t="s">
         <v>59</v>
@@ -9711,7 +9711,7 @@
         <v>60</v>
       </c>
       <c r="AA74" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB74" t="s">
         <v>61</v>
@@ -9722,167 +9722,167 @@
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="B75" t="s">
         <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
         <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s">
         <v>95</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>96</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>97</v>
       </c>
-      <c r="K75" t="s">
-        <v>98</v>
-      </c>
       <c r="L75" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="M75" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N75" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="O75" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="Q75" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="S75" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="U75" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="Y75" t="s">
         <v>60</v>
       </c>
       <c r="AA75" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ75" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s">
         <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F76" t="s">
         <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="H76" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s">
         <v>95</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>96</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>97</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
+        <v>580</v>
+      </c>
+      <c r="M76" t="s">
         <v>98</v>
       </c>
-      <c r="L76" t="s">
-        <v>607</v>
-      </c>
-      <c r="M76" t="s">
-        <v>99</v>
-      </c>
       <c r="N76" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="O76" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="P76" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="Q76" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="S76" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="U76" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Y76" t="s">
         <v>60</v>
       </c>
       <c r="AA76" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ76" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="B77" t="s">
         <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F77" t="s">
         <v>52</v>
@@ -9903,31 +9903,31 @@
         <v>57</v>
       </c>
       <c r="L77" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M77" t="s">
         <v>58</v>
       </c>
       <c r="N77" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="O77" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q77" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="S77" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="T77" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="U77" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="V77" t="s">
         <v>59</v>
@@ -9939,7 +9939,7 @@
         <v>60</v>
       </c>
       <c r="AA77" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AB77" t="s">
         <v>61</v>
@@ -9948,7 +9948,7 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
